--- a/biology/Zoologie/Aromie_musquée/Aromie_musquée.xlsx
+++ b/biology/Zoologie/Aromie_musquée/Aromie_musquée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aromie_musqu%C3%A9e</t>
+          <t>Aromie_musquée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aromia moschata
 L'aromie musquée, Aromia moschata, est une espèce de coléoptères capricornes au reflet cuivré qui fréquente les feuillus et en particulier les saules. Son nom provient de la sécrétion à odeur de musc très agréable que cette espèce émet. C'est la seule espèce du genre Aromia en Europe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aromie_musqu%C3%A9e</t>
+          <t>Aromie_musquée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 avril 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 avril 2018) :
 Aromia moschata ambrosiaca Steven &amp; Sherman, 1809
 Aromia moschata cruenta Bogatschev, 1962
 Aromia moschata jankovskyi Danilevsky, 2007
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aromie_musqu%C3%A9e</t>
+          <t>Aromie_musquée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aromia moschata fait partie des invertébrés strictement protégés en Wallonie (Belgique)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aromia moschata fait partie des invertébrés strictement protégés en Wallonie (Belgique).
 </t>
         </is>
       </c>
